--- a/nma_league_table_d2rn_formatted.xlsx
+++ b/nma_league_table_d2rn_formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethb\Documents\Career\freelance\IRG\assignments\network meta-analysis\network-meta-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D1F7F30B-791A-41C8-9E58-45E92E25CDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388400B6-2B2A-470B-8CE7-7824CB460086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{40964BF8-FB93-4989-8CEB-3BDDB7AB57A3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40964BF8-FB93-4989-8CEB-3BDDB7AB57A3}"/>
   </bookViews>
   <sheets>
     <sheet name="nma_league_table_d2rn" sheetId="1" r:id="rId1"/>
@@ -20,26 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>NL.RS</t>
   </si>
   <si>
-    <t>NL.TES.FF.RS</t>
-  </si>
-  <si>
-    <t>NL.TES.RS</t>
-  </si>
-  <si>
-    <t>NL.TES.VF.RS</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>TES.VF.RS</t>
-  </si>
-  <si>
     <t>NL.FF.RS</t>
   </si>
   <si>
@@ -49,64 +34,25 @@
     <t>0.14 (-0.26 , 0.55)</t>
   </si>
   <si>
-    <t>0.18 (-0.42 , 0.78)</t>
-  </si>
-  <si>
-    <t>0.3 (-1.03 , 1.64)</t>
-  </si>
-  <si>
-    <t>1.09 (-0.71 , 2.9)</t>
-  </si>
-  <si>
-    <t>-0.7 (-2.18 , 0.79)</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>-0.1 (-1.04 , 0.85)</t>
-  </si>
-  <si>
-    <t>-0.06 (-1.03 , 0.91)</t>
-  </si>
-  <si>
-    <t>0.06 (-1.43 , 1.56)</t>
-  </si>
-  <si>
-    <t>0.85 (-1.07 , 2.78)</t>
-  </si>
-  <si>
-    <t>-0.94 (-2.56 , 0.69)</t>
-  </si>
-  <si>
-    <t>0.04 (-0.56 , 0.63)</t>
-  </si>
-  <si>
-    <t>0.16 (-1.23 , 1.55)</t>
-  </si>
-  <si>
-    <t>0.95 (-0.9 , 2.8)</t>
-  </si>
-  <si>
-    <t>-0.84 (-2.38 , 0.7)</t>
-  </si>
-  <si>
-    <t>0.12 (-1.29 , 1.53)</t>
-  </si>
-  <si>
-    <t>0.91 (-0.95 , 2.78)</t>
-  </si>
-  <si>
-    <t>-0.88 (-2.43 , 0.68)</t>
-  </si>
-  <si>
-    <t>0.79 (-1.39 , 2.98)</t>
-  </si>
-  <si>
-    <t>-1 (-2.93 , 0.93)</t>
-  </si>
-  <si>
-    <t>-1.79 (-4.07 , 0.49)</t>
+    <t>NL.SE.FF.RS</t>
+  </si>
+  <si>
+    <t>NL.SE.RS</t>
+  </si>
+  <si>
+    <t>0.18 (-0.41 , 0.77)</t>
+  </si>
+  <si>
+    <t>-0.09 (-1.03 , 0.84)</t>
+  </si>
+  <si>
+    <t>-0.06 (-1.02 , 0.9)</t>
+  </si>
+  <si>
+    <t>0.04 (-0.55 , 0.62)</t>
   </si>
   <si>
     <t>Intervention Bundle</t>
@@ -1001,176 +947,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD834F1D-8E12-425B-AD48-AFFAFC8CBDD0}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="7" width="18.875" customWidth="1"/>
+    <col min="1" max="4" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
